--- a/predictions полгода до/Прогнозы_ETS_HA12dt.xlsx
+++ b/predictions полгода до/Прогнозы_ETS_HA12dt.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19975660.81120229</v>
+        <v>20607054.00133262</v>
       </c>
       <c r="C2" t="n">
-        <v>20935428.42233905</v>
+        <v>19536414.65094026</v>
       </c>
       <c r="D2" t="n">
-        <v>19989038.86088589</v>
+        <v>18677302.18057918</v>
       </c>
       <c r="E2" t="n">
-        <v>19248899.92213956</v>
+        <v>19723624.86729468</v>
       </c>
       <c r="F2" t="n">
-        <v>20409142.20694421</v>
+        <v>20011953.7117267</v>
       </c>
       <c r="G2" t="n">
-        <v>20806549.21727237</v>
+        <v>15396476.95161017</v>
       </c>
       <c r="H2" t="n">
-        <v>16377549.91564095</v>
+        <v>17691171.86328103</v>
       </c>
       <c r="I2" t="n">
-        <v>18690216.67979084</v>
+        <v>19073770.74821752</v>
       </c>
       <c r="J2" t="n">
-        <v>20168565.98016199</v>
+        <v>17576108.20956367</v>
       </c>
       <c r="K2" t="n">
-        <v>18762578.11385477</v>
+        <v>16866226.15199701</v>
       </c>
       <c r="L2" t="n">
-        <v>18140466.03397612</v>
+        <v>16102166.08169916</v>
       </c>
       <c r="M2" t="n">
-        <v>17460437.24841275</v>
+        <v>16115093.25591727</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11142228.33780252</v>
+        <v>9048065.107011432</v>
       </c>
       <c r="C3" t="n">
-        <v>11786635.00353766</v>
+        <v>9032834.533791251</v>
       </c>
       <c r="D3" t="n">
-        <v>12645101.76826868</v>
+        <v>9011183.901248295</v>
       </c>
       <c r="E3" t="n">
-        <v>13412778.39477201</v>
+        <v>8928175.79359873</v>
       </c>
       <c r="F3" t="n">
-        <v>14045380.42864201</v>
+        <v>9838791.489116499</v>
       </c>
       <c r="G3" t="n">
-        <v>15606837.59180364</v>
+        <v>8248347.960083633</v>
       </c>
       <c r="H3" t="n">
-        <v>15316397.97213523</v>
+        <v>8894231.783941314</v>
       </c>
       <c r="I3" t="n">
-        <v>15798844.58188791</v>
+        <v>8829770.375269273</v>
       </c>
       <c r="J3" t="n">
-        <v>16231919.56551517</v>
+        <v>8739085.361360459</v>
       </c>
       <c r="K3" t="n">
-        <v>16598179.61342067</v>
+        <v>8629415.184202615</v>
       </c>
       <c r="L3" t="n">
-        <v>16908836.53992599</v>
+        <v>8461125.287144098</v>
       </c>
       <c r="M3" t="n">
-        <v>17127862.11603759</v>
+        <v>8300078.60779464</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4885081.969481623</v>
+        <v>11096858.67587948</v>
       </c>
       <c r="C4" t="n">
-        <v>4375041.014905866</v>
+        <v>11734464.05005238</v>
       </c>
       <c r="D4" t="n">
-        <v>5005912.646652808</v>
+        <v>11946579.41674523</v>
       </c>
       <c r="E4" t="n">
-        <v>5212516.580916004</v>
+        <v>11911226.3495829</v>
       </c>
       <c r="F4" t="n">
-        <v>5182210.186041534</v>
+        <v>12169324.54933858</v>
       </c>
       <c r="G4" t="n">
-        <v>5477179.791796354</v>
+        <v>11590256.08560665</v>
       </c>
       <c r="H4" t="n">
-        <v>4940449.401165586</v>
+        <v>11632085.42500978</v>
       </c>
       <c r="I4" t="n">
-        <v>4871784.18517656</v>
+        <v>11428042.61690503</v>
       </c>
       <c r="J4" t="n">
-        <v>4661718.004844066</v>
+        <v>12097611.74276627</v>
       </c>
       <c r="K4" t="n">
-        <v>5325417.428555293</v>
+        <v>11973204.14695852</v>
       </c>
       <c r="L4" t="n">
-        <v>5195206.675203444</v>
+        <v>11946538.88446689</v>
       </c>
       <c r="M4" t="n">
-        <v>5162818.479781572</v>
+        <v>11728146.69317677</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3941431.444918615</v>
+        <v>21736553.74407619</v>
       </c>
       <c r="C5" t="n">
-        <v>5489012.950260682</v>
+        <v>23463950.68231103</v>
       </c>
       <c r="D5" t="n">
-        <v>7005638.467571726</v>
+        <v>24105969.56745905</v>
       </c>
       <c r="E5" t="n">
-        <v>8490822.721452465</v>
+        <v>26566392.03034479</v>
       </c>
       <c r="F5" t="n">
-        <v>9935852.586663397</v>
+        <v>38562436.31742674</v>
       </c>
       <c r="G5" t="n">
-        <v>11320050.11724776</v>
+        <v>18929247.64075202</v>
       </c>
       <c r="H5" t="n">
-        <v>12774759.28711006</v>
+        <v>29830736.33062223</v>
       </c>
       <c r="I5" t="n">
-        <v>14145718.27121578</v>
+        <v>30681758.43131687</v>
       </c>
       <c r="J5" t="n">
-        <v>15489173.90749531</v>
+        <v>30736125.76779589</v>
       </c>
       <c r="K5" t="n">
-        <v>16805787.4840329</v>
+        <v>30887337.00483914</v>
       </c>
       <c r="L5" t="n">
-        <v>18096110.0784844</v>
+        <v>32830657.48549531</v>
       </c>
       <c r="M5" t="n">
-        <v>19360609.75306996</v>
+        <v>32208057.28011622</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8947007.198325118</v>
+        <v>1772222.978418914</v>
       </c>
       <c r="C6" t="n">
-        <v>9119089.477575887</v>
+        <v>3159088.106494321</v>
       </c>
       <c r="D6" t="n">
-        <v>9585638.197738707</v>
+        <v>848216.4051730621</v>
       </c>
       <c r="E6" t="n">
-        <v>10787515.10284153</v>
+        <v>3511654.724260516</v>
       </c>
       <c r="F6" t="n">
-        <v>11204464.47428312</v>
+        <v>1432768.977648957</v>
       </c>
       <c r="G6" t="n">
-        <v>18615027.48286834</v>
+        <v>1089370.923487822</v>
       </c>
       <c r="H6" t="n">
-        <v>8403781.930502776</v>
+        <v>3867312.466617813</v>
       </c>
       <c r="I6" t="n">
-        <v>13276442.13156452</v>
+        <v>4552717.768494451</v>
       </c>
       <c r="J6" t="n">
-        <v>11781993.06380998</v>
+        <v>2831269.130742107</v>
       </c>
       <c r="K6" t="n">
-        <v>11895700.45800797</v>
+        <v>3572730.040706056</v>
       </c>
       <c r="L6" t="n">
-        <v>12499104.64765917</v>
+        <v>1504735.96377638</v>
       </c>
       <c r="M6" t="n">
-        <v>12856560.06883323</v>
+        <v>2895286.601173525</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2032018.930810298</v>
+        <v>8278604.359910456</v>
       </c>
       <c r="C7" t="n">
-        <v>2349358.470441677</v>
+        <v>7925224.943131283</v>
       </c>
       <c r="D7" t="n">
-        <v>2945304.880786</v>
+        <v>8644567.20074057</v>
       </c>
       <c r="E7" t="n">
-        <v>2505819.988832577</v>
+        <v>7282077.528152538</v>
       </c>
       <c r="F7" t="n">
-        <v>2896041.169532824</v>
+        <v>7893068.315804512</v>
       </c>
       <c r="G7" t="n">
-        <v>4743140.517248526</v>
+        <v>7093468.904320013</v>
       </c>
       <c r="H7" t="n">
-        <v>1801879.956043608</v>
+        <v>9261617.20518619</v>
       </c>
       <c r="I7" t="n">
-        <v>2867585.280742548</v>
+        <v>10327149.35673956</v>
       </c>
       <c r="J7" t="n">
-        <v>3184127.459640586</v>
+        <v>9340938.399363382</v>
       </c>
       <c r="K7" t="n">
-        <v>3608457.551337477</v>
+        <v>8453456.434394369</v>
       </c>
       <c r="L7" t="n">
-        <v>2679758.054372621</v>
+        <v>8433904.322201895</v>
       </c>
       <c r="M7" t="n">
-        <v>3431918.296522137</v>
+        <v>8920248.616379919</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1754201.085072561</v>
+        <v>16166116.43386988</v>
       </c>
       <c r="C8" t="n">
-        <v>1616111.120314545</v>
+        <v>18746086.15758733</v>
       </c>
       <c r="D8" t="n">
-        <v>1529970.718270196</v>
+        <v>18578059.68511989</v>
       </c>
       <c r="E8" t="n">
-        <v>1811677.077816543</v>
+        <v>20144818.56713824</v>
       </c>
       <c r="F8" t="n">
-        <v>2416030.422146787</v>
+        <v>25679743.0516653</v>
       </c>
       <c r="G8" t="n">
-        <v>1822749.611702832</v>
+        <v>13983843.41163454</v>
       </c>
       <c r="H8" t="n">
-        <v>1090227.679938848</v>
+        <v>19403896.03229105</v>
       </c>
       <c r="I8" t="n">
-        <v>1538408.273086388</v>
+        <v>22771518.61435758</v>
       </c>
       <c r="J8" t="n">
-        <v>1541601.767312353</v>
+        <v>20737571.91644038</v>
       </c>
       <c r="K8" t="n">
-        <v>1629680.322393535</v>
+        <v>18575950.1813191</v>
       </c>
       <c r="L8" t="n">
-        <v>1387315.713906763</v>
+        <v>19768054.11737815</v>
       </c>
       <c r="M8" t="n">
-        <v>1755706.981760693</v>
+        <v>19551133.52105201</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2814113.45373574</v>
+        <v>28114323.79392515</v>
       </c>
       <c r="C9" t="n">
-        <v>2809354.424736504</v>
+        <v>26861908.11662605</v>
       </c>
       <c r="D9" t="n">
-        <v>2782698.718025703</v>
+        <v>26960694.92959483</v>
       </c>
       <c r="E9" t="n">
-        <v>2730589.943526585</v>
+        <v>27285478.01565844</v>
       </c>
       <c r="F9" t="n">
-        <v>2650766.079278984</v>
+        <v>35793282.16406704</v>
       </c>
       <c r="G9" t="n">
-        <v>2559524.378083332</v>
+        <v>25749410.5283883</v>
       </c>
       <c r="H9" t="n">
-        <v>2701719.829019998</v>
+        <v>29940549.60749298</v>
       </c>
       <c r="I9" t="n">
-        <v>2907463.2293852</v>
+        <v>30542299.8401847</v>
       </c>
       <c r="J9" t="n">
-        <v>2986571.724343641</v>
+        <v>32068784.15014952</v>
       </c>
       <c r="K9" t="n">
-        <v>2912225.441648887</v>
+        <v>30807429.40291515</v>
       </c>
       <c r="L9" t="n">
-        <v>3035897.430516945</v>
+        <v>32877464.4695472</v>
       </c>
       <c r="M9" t="n">
-        <v>2637761.023751117</v>
+        <v>29715187.9866822</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4522782.630114107</v>
+        <v>26677544.35658373</v>
       </c>
       <c r="C10" t="n">
-        <v>5421001.921441484</v>
+        <v>31961362.65189429</v>
       </c>
       <c r="D10" t="n">
-        <v>5758545.777645171</v>
+        <v>37276213.16610567</v>
       </c>
       <c r="E10" t="n">
-        <v>4870682.486974649</v>
+        <v>42060846.53745101</v>
       </c>
       <c r="F10" t="n">
-        <v>5493395.914816924</v>
+        <v>47260068.82163019</v>
       </c>
       <c r="G10" t="n">
-        <v>8286169.535539703</v>
+        <v>50653318.52815946</v>
       </c>
       <c r="H10" t="n">
-        <v>3920667.859091894</v>
+        <v>56295235.43825994</v>
       </c>
       <c r="I10" t="n">
-        <v>5694183.783765274</v>
+        <v>62441790.56892925</v>
       </c>
       <c r="J10" t="n">
-        <v>7251039.013615008</v>
+        <v>67679963.86619306</v>
       </c>
       <c r="K10" t="n">
-        <v>6170012.715390025</v>
+        <v>71644884.59602749</v>
       </c>
       <c r="L10" t="n">
-        <v>6311787.100749907</v>
+        <v>74988103.5241195</v>
       </c>
       <c r="M10" t="n">
-        <v>6182396.468670747</v>
+        <v>80935649.67175223</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3408441.966392638</v>
+        <v>16260652.4367632</v>
       </c>
       <c r="C11" t="n">
-        <v>2777530.45141159</v>
+        <v>17670915.61686509</v>
       </c>
       <c r="D11" t="n">
-        <v>3958064.672560899</v>
+        <v>19293758.29744576</v>
       </c>
       <c r="E11" t="n">
-        <v>1839168.03618084</v>
+        <v>19862540.12004757</v>
       </c>
       <c r="F11" t="n">
-        <v>4291754.173059708</v>
+        <v>18933001.42906421</v>
       </c>
       <c r="G11" t="n">
-        <v>2102532.706111478</v>
+        <v>18686326.63390515</v>
       </c>
       <c r="H11" t="n">
-        <v>2292098.055683447</v>
+        <v>20019714.05014163</v>
       </c>
       <c r="I11" t="n">
-        <v>3759058.557663344</v>
+        <v>20453426.38388148</v>
       </c>
       <c r="J11" t="n">
-        <v>3772939.242552192</v>
+        <v>20880082.99366931</v>
       </c>
       <c r="K11" t="n">
-        <v>3026450.224482478</v>
+        <v>21346348.97069472</v>
       </c>
       <c r="L11" t="n">
-        <v>4030245.675432411</v>
+        <v>21794066.74816187</v>
       </c>
       <c r="M11" t="n">
-        <v>2437932.241178195</v>
+        <v>22766153.40594473</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>458705.9270323088</v>
+        <v>40018460.90551464</v>
       </c>
       <c r="C12" t="n">
-        <v>27802.14698232972</v>
+        <v>43909468.63180064</v>
       </c>
       <c r="D12" t="n">
-        <v>224440.2393130687</v>
+        <v>46188914.31895517</v>
       </c>
       <c r="E12" t="n">
-        <v>23468.48553901922</v>
+        <v>44834466.98802214</v>
       </c>
       <c r="F12" t="n">
-        <v>225865.9438041364</v>
+        <v>38768184.13805567</v>
       </c>
       <c r="G12" t="n">
-        <v>328323.9581538474</v>
+        <v>37198637.2785365</v>
       </c>
       <c r="H12" t="n">
-        <v>-62113.05580058321</v>
+        <v>42951366.00557871</v>
       </c>
       <c r="I12" t="n">
-        <v>1092018.786765204</v>
+        <v>39305469.62491709</v>
       </c>
       <c r="J12" t="n">
-        <v>1757080.839928678</v>
+        <v>38812379.86498191</v>
       </c>
       <c r="K12" t="n">
-        <v>776054.2743547466</v>
+        <v>35309974.0364482</v>
       </c>
       <c r="L12" t="n">
-        <v>507960.7390245808</v>
+        <v>41139572.23205922</v>
       </c>
       <c r="M12" t="n">
-        <v>26855.0982148684</v>
+        <v>47350899.06149326</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1609974.827867425</v>
+        <v>41841040.30971967</v>
       </c>
       <c r="C13" t="n">
-        <v>1712956.34004309</v>
+        <v>41762283.22529377</v>
       </c>
       <c r="D13" t="n">
-        <v>1804315.176377454</v>
+        <v>44555207.49658745</v>
       </c>
       <c r="E13" t="n">
-        <v>2172062.597939117</v>
+        <v>38169777.48516323</v>
       </c>
       <c r="F13" t="n">
-        <v>2087667.679027756</v>
+        <v>35520591.83179856</v>
       </c>
       <c r="G13" t="n">
-        <v>2312452.733545602</v>
+        <v>32872630.39153878</v>
       </c>
       <c r="H13" t="n">
-        <v>2500831.585430564</v>
+        <v>36708897.46667682</v>
       </c>
       <c r="I13" t="n">
-        <v>2643201.034600176</v>
+        <v>33094243.56391517</v>
       </c>
       <c r="J13" t="n">
-        <v>2787571.432662318</v>
+        <v>35177319.08729664</v>
       </c>
       <c r="K13" t="n">
-        <v>2921541.496127302</v>
+        <v>29401960.04584529</v>
       </c>
       <c r="L13" t="n">
-        <v>3051944.000220361</v>
+        <v>35088077.28192101</v>
       </c>
       <c r="M13" t="n">
-        <v>3183380.845406864</v>
+        <v>40827733.79733758</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-370561.1132226933</v>
+        <v>3155042.194988712</v>
       </c>
       <c r="C14" t="n">
-        <v>-307346.4307993579</v>
+        <v>4242602.781900395</v>
       </c>
       <c r="D14" t="n">
-        <v>-558162.3494828222</v>
+        <v>5306604.291118426</v>
       </c>
       <c r="E14" t="n">
-        <v>229266.0143179059</v>
+        <v>6350757.385384224</v>
       </c>
       <c r="F14" t="n">
-        <v>-705104.7296935607</v>
+        <v>7366254.244229949</v>
       </c>
       <c r="G14" t="n">
-        <v>-476249.0070281711</v>
+        <v>8336399.191853388</v>
       </c>
       <c r="H14" t="n">
-        <v>-731434.7027433665</v>
+        <v>9414513.878676079</v>
       </c>
       <c r="I14" t="n">
-        <v>567203.6188749142</v>
+        <v>10385447.91506312</v>
       </c>
       <c r="J14" t="n">
-        <v>1694782.228671126</v>
+        <v>11336852.19875803</v>
       </c>
       <c r="K14" t="n">
-        <v>731352.7319673372</v>
+        <v>12269263.89794365</v>
       </c>
       <c r="L14" t="n">
-        <v>-143038.1882461611</v>
+        <v>13183079.92611261</v>
       </c>
       <c r="M14" t="n">
-        <v>-140355.5805568657</v>
+        <v>14078505.27973024</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>985966.1125776144</v>
+        <v>4221371.182477156</v>
       </c>
       <c r="C15" t="n">
-        <v>892426.1087959206</v>
+        <v>3778422.944269579</v>
       </c>
       <c r="D15" t="n">
-        <v>929807.1549405002</v>
+        <v>3650360.185118374</v>
       </c>
       <c r="E15" t="n">
-        <v>988688.9973080186</v>
+        <v>4366879.842804343</v>
       </c>
       <c r="F15" t="n">
-        <v>998194.5356840091</v>
+        <v>3961320.785447253</v>
       </c>
       <c r="G15" t="n">
-        <v>1302600.326950802</v>
+        <v>3835807.047228476</v>
       </c>
       <c r="H15" t="n">
-        <v>1157341.954611096</v>
+        <v>4576629.657106672</v>
       </c>
       <c r="I15" t="n">
-        <v>1186304.878262524</v>
+        <v>4487982.460080071</v>
       </c>
       <c r="J15" t="n">
-        <v>1218511.42794323</v>
+        <v>5188106.648486617</v>
       </c>
       <c r="K15" t="n">
-        <v>1247460.47102997</v>
+        <v>4295017.028498698</v>
       </c>
       <c r="L15" t="n">
-        <v>1273986.421666345</v>
+        <v>4118473.581197024</v>
       </c>
       <c r="M15" t="n">
-        <v>1298545.570330384</v>
+        <v>3983914.602648627</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1287539.902709582</v>
+        <v>9713590.755796701</v>
       </c>
       <c r="C16" t="n">
-        <v>1368914.350426402</v>
+        <v>13145098.67961749</v>
       </c>
       <c r="D16" t="n">
-        <v>1489758.847551584</v>
+        <v>12580772.8495813</v>
       </c>
       <c r="E16" t="n">
-        <v>1625636.443982822</v>
+        <v>14383418.59317944</v>
       </c>
       <c r="F16" t="n">
-        <v>1698241.864601023</v>
+        <v>14159844.55664342</v>
       </c>
       <c r="G16" t="n">
-        <v>2084625.896565624</v>
+        <v>13948840.12959704</v>
       </c>
       <c r="H16" t="n">
-        <v>2072770.370563153</v>
+        <v>12977656.38035949</v>
       </c>
       <c r="I16" t="n">
-        <v>2196005.519784934</v>
+        <v>13280714.10662748</v>
       </c>
       <c r="J16" t="n">
-        <v>2318606.470298333</v>
+        <v>14467221.13954724</v>
       </c>
       <c r="K16" t="n">
-        <v>2437933.655309386</v>
+        <v>14078897.2013222</v>
       </c>
       <c r="L16" t="n">
-        <v>2555559.830045545</v>
+        <v>13993509.48905098</v>
       </c>
       <c r="M16" t="n">
-        <v>2660793.530827401</v>
+        <v>14040088.65112203</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7688416.993687493</v>
+        <v>4874034.837053376</v>
       </c>
       <c r="C17" t="n">
-        <v>8525051.984357335</v>
+        <v>5539572.797390155</v>
       </c>
       <c r="D17" t="n">
-        <v>9327261.701112542</v>
+        <v>5663393.04547444</v>
       </c>
       <c r="E17" t="n">
-        <v>9829801.002764666</v>
+        <v>6015473.926282665</v>
       </c>
       <c r="F17" t="n">
-        <v>10511846.44143446</v>
+        <v>5455120.527196809</v>
       </c>
       <c r="G17" t="n">
-        <v>11053052.12120289</v>
+        <v>4772702.622733676</v>
       </c>
       <c r="H17" t="n">
-        <v>12097818.25798209</v>
+        <v>6043938.836749936</v>
       </c>
       <c r="I17" t="n">
-        <v>13120423.23904748</v>
+        <v>5162769.966725611</v>
       </c>
       <c r="J17" t="n">
-        <v>13793129.83632595</v>
+        <v>5084816.461994001</v>
       </c>
       <c r="K17" t="n">
-        <v>14303546.47044331</v>
+        <v>5229183.6307417</v>
       </c>
       <c r="L17" t="n">
-        <v>15344743.09388607</v>
+        <v>5843353.754203968</v>
       </c>
       <c r="M17" t="n">
-        <v>15411643.36475703</v>
+        <v>5850247.472157285</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>944468.2536262586</v>
+        <v>3242690.408471124</v>
       </c>
       <c r="C18" t="n">
-        <v>655553.0100972074</v>
+        <v>3670119.702663408</v>
       </c>
       <c r="D18" t="n">
-        <v>1243653.436402483</v>
+        <v>3113819.406451253</v>
       </c>
       <c r="E18" t="n">
-        <v>955039.0387742457</v>
+        <v>3003846.53370556</v>
       </c>
       <c r="F18" t="n">
-        <v>1314756.401247979</v>
+        <v>3523552.242930569</v>
       </c>
       <c r="G18" t="n">
-        <v>3749284.264976225</v>
+        <v>2974116.899608442</v>
       </c>
       <c r="H18" t="n">
-        <v>841455.4003247856</v>
+        <v>4222237.168221394</v>
       </c>
       <c r="I18" t="n">
-        <v>1353517.767669012</v>
+        <v>3657223.903863166</v>
       </c>
       <c r="J18" t="n">
-        <v>1597039.173921414</v>
+        <v>3057604.198902212</v>
       </c>
       <c r="K18" t="n">
-        <v>1283002.283556625</v>
+        <v>4020030.586236068</v>
       </c>
       <c r="L18" t="n">
-        <v>991407.1146042881</v>
+        <v>4166180.493253352</v>
       </c>
       <c r="M18" t="n">
-        <v>1339862.922116111</v>
+        <v>2796806.571972743</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-90693.63844919545</v>
+        <v>6817479.98439156</v>
       </c>
       <c r="C19" t="n">
-        <v>-184102.3241215747</v>
+        <v>4559769.104765731</v>
       </c>
       <c r="D19" t="n">
-        <v>130864.3089235822</v>
+        <v>6392492.538777443</v>
       </c>
       <c r="E19" t="n">
-        <v>-182883.7021745413</v>
+        <v>4943618.048685345</v>
       </c>
       <c r="F19" t="n">
-        <v>-251631.1220098562</v>
+        <v>6130147.77384029</v>
       </c>
       <c r="G19" t="n">
-        <v>-120124.0661531856</v>
+        <v>3138556.929409108</v>
       </c>
       <c r="H19" t="n">
-        <v>-257962.0770005304</v>
+        <v>4336972.207322548</v>
       </c>
       <c r="I19" t="n">
-        <v>-224597.317464557</v>
+        <v>5820025.282655902</v>
       </c>
       <c r="J19" t="n">
-        <v>-32328.03288831207</v>
+        <v>3755853.395511113</v>
       </c>
       <c r="K19" t="n">
-        <v>-283049.230962534</v>
+        <v>3217131.250892869</v>
       </c>
       <c r="L19" t="n">
-        <v>-194327.296594529</v>
+        <v>4691997.94988464</v>
       </c>
       <c r="M19" t="n">
-        <v>-359495.8170461399</v>
+        <v>6128611.42761407</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1959728.321686523</v>
+        <v>1834939.146063309</v>
       </c>
       <c r="C20" t="n">
-        <v>2111279.770439467</v>
+        <v>2572665.723919504</v>
       </c>
       <c r="D20" t="n">
-        <v>2107952.694113331</v>
+        <v>3042210.589384501</v>
       </c>
       <c r="E20" t="n">
-        <v>2333444.689077214</v>
+        <v>3153455.597157022</v>
       </c>
       <c r="F20" t="n">
-        <v>2238610.030844046</v>
+        <v>2118256.518582528</v>
       </c>
       <c r="G20" t="n">
-        <v>2724092.565932254</v>
+        <v>2037509.375777373</v>
       </c>
       <c r="H20" t="n">
-        <v>358187.7057240962</v>
+        <v>3021391.693134287</v>
       </c>
       <c r="I20" t="n">
-        <v>1427652.214412785</v>
+        <v>3268761.088267963</v>
       </c>
       <c r="J20" t="n">
-        <v>2073069.03815866</v>
+        <v>1946654.130079449</v>
       </c>
       <c r="K20" t="n">
-        <v>2173072.078669024</v>
+        <v>2177574.85498978</v>
       </c>
       <c r="L20" t="n">
-        <v>1730455.250831986</v>
+        <v>3263955.250905386</v>
       </c>
       <c r="M20" t="n">
-        <v>2339856.438969646</v>
+        <v>2275888.626561812</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2097025.244645148</v>
+        <v>3997752.522872172</v>
       </c>
       <c r="C21" t="n">
-        <v>1685662.426176115</v>
+        <v>4020790.349512494</v>
       </c>
       <c r="D21" t="n">
-        <v>1889805.553759557</v>
+        <v>5273211.478172179</v>
       </c>
       <c r="E21" t="n">
-        <v>2762411.490427176</v>
+        <v>4867025.264645293</v>
       </c>
       <c r="F21" t="n">
-        <v>2250347.386543879</v>
+        <v>5120007.831184009</v>
       </c>
       <c r="G21" t="n">
-        <v>2371524.736239627</v>
+        <v>4330817.489656605</v>
       </c>
       <c r="H21" t="n">
-        <v>2524768.960464404</v>
+        <v>4052787.465125537</v>
       </c>
       <c r="I21" t="n">
-        <v>2986508.970952176</v>
+        <v>4009300.740205526</v>
       </c>
       <c r="J21" t="n">
-        <v>2998225.921321208</v>
+        <v>4205381.146665653</v>
       </c>
       <c r="K21" t="n">
-        <v>3598953.40150636</v>
+        <v>4496238.416380887</v>
       </c>
       <c r="L21" t="n">
-        <v>3281894.435281951</v>
+        <v>4713779.083301793</v>
       </c>
       <c r="M21" t="n">
-        <v>3535443.8703202</v>
+        <v>3912210.888431153</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>86707.14256791282</v>
+        <v>10357007.10610845</v>
       </c>
       <c r="C22" t="n">
-        <v>-41342.07468924194</v>
+        <v>12416473.57630781</v>
       </c>
       <c r="D22" t="n">
-        <v>-52775.73064972134</v>
+        <v>13959289.89422154</v>
       </c>
       <c r="E22" t="n">
-        <v>39632.76389454235</v>
+        <v>13446704.79477865</v>
       </c>
       <c r="F22" t="n">
-        <v>867721.6894841329</v>
+        <v>13767630.91997867</v>
       </c>
       <c r="G22" t="n">
-        <v>1389078.603321548</v>
+        <v>10861050.52474893</v>
       </c>
       <c r="H22" t="n">
-        <v>1251148.074165718</v>
+        <v>13263484.55727439</v>
       </c>
       <c r="I22" t="n">
-        <v>717521.7184931168</v>
+        <v>11814998.74396041</v>
       </c>
       <c r="J22" t="n">
-        <v>1348856.804644868</v>
+        <v>13507615.62202996</v>
       </c>
       <c r="K22" t="n">
-        <v>1042315.454287071</v>
+        <v>11380728.49261082</v>
       </c>
       <c r="L22" t="n">
-        <v>569779.9203278901</v>
+        <v>12886355.55430545</v>
       </c>
       <c r="M22" t="n">
-        <v>437596.66438849</v>
+        <v>12590614.30296775</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-49254.33868888635</v>
+        <v>14534117.84054483</v>
       </c>
       <c r="C23" t="n">
-        <v>-49264.9581965571</v>
+        <v>11146276.57350828</v>
       </c>
       <c r="D23" t="n">
-        <v>-49274.84598660412</v>
+        <v>7954260.098659535</v>
       </c>
       <c r="E23" t="n">
-        <v>-48144.29529521507</v>
+        <v>7706651.81555593</v>
       </c>
       <c r="F23" t="n">
-        <v>-41759.19903071418</v>
+        <v>7652370.816937205</v>
       </c>
       <c r="G23" t="n">
-        <v>247768.6143738235</v>
+        <v>3683822.23702305</v>
       </c>
       <c r="H23" t="n">
-        <v>-49299.57276867083</v>
+        <v>6682098.051437114</v>
       </c>
       <c r="I23" t="n">
-        <v>111685.4440018143</v>
+        <v>6439762.976603101</v>
       </c>
       <c r="J23" t="n">
-        <v>59329.22448045991</v>
+        <v>6139281.059187697</v>
       </c>
       <c r="K23" t="n">
-        <v>-29264.89054912255</v>
+        <v>4478604.834088927</v>
       </c>
       <c r="L23" t="n">
-        <v>15606.0752286617</v>
+        <v>7108316.185155115</v>
       </c>
       <c r="M23" t="n">
-        <v>-49338.69804074777</v>
+        <v>7312982.632948911</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13802236.60726443</v>
+        <v>8613737.756634064</v>
       </c>
       <c r="C24" t="n">
-        <v>11593667.31145871</v>
+        <v>10242451.23248725</v>
       </c>
       <c r="D24" t="n">
-        <v>13019536.39332202</v>
+        <v>9846102.802985189</v>
       </c>
       <c r="E24" t="n">
-        <v>11754728.37317074</v>
+        <v>10583583.6262642</v>
       </c>
       <c r="F24" t="n">
-        <v>12282610.86136397</v>
+        <v>13277198.79066879</v>
       </c>
       <c r="G24" t="n">
-        <v>14927253.30648617</v>
+        <v>8143108.72501513</v>
       </c>
       <c r="H24" t="n">
-        <v>10218126.13722528</v>
+        <v>10715539.28490864</v>
       </c>
       <c r="I24" t="n">
-        <v>13099150.15539813</v>
+        <v>11063472.49375951</v>
       </c>
       <c r="J24" t="n">
-        <v>14868916.96849714</v>
+        <v>11417687.66323156</v>
       </c>
       <c r="K24" t="n">
-        <v>13276881.13763896</v>
+        <v>9642015.342033833</v>
       </c>
       <c r="L24" t="n">
-        <v>12972749.08767366</v>
+        <v>10575902.86422377</v>
       </c>
       <c r="M24" t="n">
-        <v>12704595.44403868</v>
+        <v>11291770.19370045</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2528248.092359934</v>
+        <v>4773876.026685289</v>
       </c>
       <c r="C25" t="n">
-        <v>2618249.593722597</v>
+        <v>6387346.361855064</v>
       </c>
       <c r="D25" t="n">
-        <v>2332658.661821727</v>
+        <v>6273363.991747239</v>
       </c>
       <c r="E25" t="n">
-        <v>3287780.377750244</v>
+        <v>5821359.119646987</v>
       </c>
       <c r="F25" t="n">
-        <v>3152059.213613747</v>
+        <v>6808912.713994074</v>
       </c>
       <c r="G25" t="n">
-        <v>2868006.322400104</v>
+        <v>4216665.405749649</v>
       </c>
       <c r="H25" t="n">
-        <v>1687115.64648022</v>
+        <v>4916347.678387051</v>
       </c>
       <c r="I25" t="n">
-        <v>2547828.577201855</v>
+        <v>6656946.450419065</v>
       </c>
       <c r="J25" t="n">
-        <v>2791231.491843452</v>
+        <v>5509724.229570248</v>
       </c>
       <c r="K25" t="n">
-        <v>2748942.714393472</v>
+        <v>3944264.311732269</v>
       </c>
       <c r="L25" t="n">
-        <v>2365186.483598011</v>
+        <v>4306661.691164342</v>
       </c>
       <c r="M25" t="n">
-        <v>3073488.291539072</v>
+        <v>5513928.541386281</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>12396056.17754294</v>
+        <v>11186767.57507089</v>
       </c>
       <c r="C26" t="n">
-        <v>12829617.83196302</v>
+        <v>11064140.86975848</v>
       </c>
       <c r="D26" t="n">
-        <v>11585563.42366313</v>
+        <v>10846710.40738679</v>
       </c>
       <c r="E26" t="n">
-        <v>11657489.21012535</v>
+        <v>9606662.77260636</v>
       </c>
       <c r="F26" t="n">
-        <v>11238190.3357279</v>
+        <v>11937660.77731488</v>
       </c>
       <c r="G26" t="n">
-        <v>13035338.62666995</v>
+        <v>9003127.571700303</v>
       </c>
       <c r="H26" t="n">
-        <v>11426034.81870135</v>
+        <v>11696065.89395828</v>
       </c>
       <c r="I26" t="n">
-        <v>11739038.03806282</v>
+        <v>11233688.0041675</v>
       </c>
       <c r="J26" t="n">
-        <v>13001254.33844694</v>
+        <v>8942990.654814988</v>
       </c>
       <c r="K26" t="n">
-        <v>14947818.83102236</v>
+        <v>9303968.224703461</v>
       </c>
       <c r="L26" t="n">
-        <v>14158695.07709127</v>
+        <v>9322068.47438338</v>
       </c>
       <c r="M26" t="n">
-        <v>15278351.66946584</v>
+        <v>9961821.718089893</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13774969.69562114</v>
+        <v>4145968.534859819</v>
       </c>
       <c r="C27" t="n">
-        <v>14319280.41319825</v>
+        <v>3737942.90574407</v>
       </c>
       <c r="D27" t="n">
-        <v>14642575.20374935</v>
+        <v>3881084.026162236</v>
       </c>
       <c r="E27" t="n">
-        <v>14614562.00516378</v>
+        <v>3379787.524684261</v>
       </c>
       <c r="F27" t="n">
-        <v>15486197.3564719</v>
+        <v>4672883.655708416</v>
       </c>
       <c r="G27" t="n">
-        <v>22027969.1882138</v>
+        <v>3066976.785432568</v>
       </c>
       <c r="H27" t="n">
-        <v>14816442.11331066</v>
+        <v>3942917.874835369</v>
       </c>
       <c r="I27" t="n">
-        <v>17565831.32911854</v>
+        <v>3875497.789841572</v>
       </c>
       <c r="J27" t="n">
-        <v>16642617.10425861</v>
+        <v>3563611.601130207</v>
       </c>
       <c r="K27" t="n">
-        <v>16421125.43663745</v>
+        <v>2976550.435227476</v>
       </c>
       <c r="L27" t="n">
-        <v>14740576.98465535</v>
+        <v>3362206.638031046</v>
       </c>
       <c r="M27" t="n">
-        <v>14993494.01304777</v>
+        <v>4951540.748310424</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>14647652.28776383</v>
+        <v>10264303.97584476</v>
       </c>
       <c r="C28" t="n">
-        <v>15135994.57400894</v>
+        <v>7604179.071364778</v>
       </c>
       <c r="D28" t="n">
-        <v>15658788.84431174</v>
+        <v>7010209.850519011</v>
       </c>
       <c r="E28" t="n">
-        <v>16150991.72168428</v>
+        <v>8728793.160181988</v>
       </c>
       <c r="F28" t="n">
-        <v>16134345.78175843</v>
+        <v>12658317.34265671</v>
       </c>
       <c r="G28" t="n">
-        <v>16548040.73347895</v>
+        <v>8117610.805345718</v>
       </c>
       <c r="H28" t="n">
-        <v>17022954.05894269</v>
+        <v>11276740.7037694</v>
       </c>
       <c r="I28" t="n">
-        <v>17382044.56390198</v>
+        <v>10297977.92887834</v>
       </c>
       <c r="J28" t="n">
-        <v>17793406.54266493</v>
+        <v>10668186.0069591</v>
       </c>
       <c r="K28" t="n">
-        <v>17887441.31899491</v>
+        <v>8255364.354542878</v>
       </c>
       <c r="L28" t="n">
-        <v>17563566.42037088</v>
+        <v>10479779.01690045</v>
       </c>
       <c r="M28" t="n">
-        <v>17786423.30165218</v>
+        <v>13750393.65797911</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>18013717.06896092</v>
+        <v>2440874.665933978</v>
       </c>
       <c r="C29" t="n">
-        <v>19126887.28497066</v>
+        <v>2518373.368959588</v>
       </c>
       <c r="D29" t="n">
-        <v>20904394.51906877</v>
+        <v>2471063.305780449</v>
       </c>
       <c r="E29" t="n">
-        <v>22887098.37845818</v>
+        <v>2583708.943181009</v>
       </c>
       <c r="F29" t="n">
-        <v>23779941.24947825</v>
+        <v>2611340.621412729</v>
       </c>
       <c r="G29" t="n">
-        <v>23033515.07997879</v>
+        <v>2692855.82241952</v>
       </c>
       <c r="H29" t="n">
-        <v>24166196.73121959</v>
+        <v>2832556.54897328</v>
       </c>
       <c r="I29" t="n">
-        <v>24982039.60538372</v>
+        <v>2989005.117322784</v>
       </c>
       <c r="J29" t="n">
-        <v>25740563.92833287</v>
+        <v>3125294.162413431</v>
       </c>
       <c r="K29" t="n">
-        <v>26483621.01171906</v>
+        <v>3158537.453896774</v>
       </c>
       <c r="L29" t="n">
-        <v>27259411.19531917</v>
+        <v>3363559.014506858</v>
       </c>
       <c r="M29" t="n">
-        <v>28018069.78450934</v>
+        <v>3366576.346680429</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49142588.30029545</v>
+        <v>615126.9901600872</v>
       </c>
       <c r="C30" t="n">
-        <v>43273587.6684109</v>
+        <v>576272.9739380141</v>
       </c>
       <c r="D30" t="n">
-        <v>47104886.195016</v>
+        <v>542898.3483258131</v>
       </c>
       <c r="E30" t="n">
-        <v>49325798.72667053</v>
+        <v>525953.9651513561</v>
       </c>
       <c r="F30" t="n">
-        <v>47914008.39345025</v>
+        <v>862928.7451925378</v>
       </c>
       <c r="G30" t="n">
-        <v>41791558.0044636</v>
+        <v>520525.2133621074</v>
       </c>
       <c r="H30" t="n">
-        <v>41704775.76862086</v>
+        <v>522348.1528394126</v>
       </c>
       <c r="I30" t="n">
-        <v>45865975.80845211</v>
+        <v>430375.68871536</v>
       </c>
       <c r="J30" t="n">
-        <v>42167153.11653239</v>
+        <v>590372.6878965303</v>
       </c>
       <c r="K30" t="n">
-        <v>41622094.99173819</v>
+        <v>455994.1446877925</v>
       </c>
       <c r="L30" t="n">
-        <v>38068863.77757914</v>
+        <v>369911.5822606737</v>
       </c>
       <c r="M30" t="n">
-        <v>43848680.72495427</v>
+        <v>454523.3486851261</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>43894131.02706856</v>
+        <v>511204.5867463311</v>
       </c>
       <c r="C31" t="n">
-        <v>45147510.98769896</v>
+        <v>689982.293024853</v>
       </c>
       <c r="D31" t="n">
-        <v>45153435.90200103</v>
+        <v>782711.8254356912</v>
       </c>
       <c r="E31" t="n">
-        <v>48029387.68694563</v>
+        <v>867786.7984119246</v>
       </c>
       <c r="F31" t="n">
-        <v>41725161.42967982</v>
+        <v>823218.4887146818</v>
       </c>
       <c r="G31" t="n">
-        <v>39155431.914906</v>
+        <v>458413.924679443</v>
       </c>
       <c r="H31" t="n">
-        <v>37410875.23762631</v>
+        <v>703681.9223080454</v>
       </c>
       <c r="I31" t="n">
-        <v>40497592.38610312</v>
+        <v>730369.7386029202</v>
       </c>
       <c r="J31" t="n">
-        <v>36957333.68081909</v>
+        <v>754722.8382268938</v>
       </c>
       <c r="K31" t="n">
-        <v>39112697.17438968</v>
+        <v>553145.368225802</v>
       </c>
       <c r="L31" t="n">
-        <v>33408247.13757357</v>
+        <v>540473.0919291774</v>
       </c>
       <c r="M31" t="n">
-        <v>39163525.36872478</v>
+        <v>542377.7413015072</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>788410.0763065058</v>
+        <v>1805538.686978383</v>
       </c>
       <c r="C32" t="n">
-        <v>952293.9939029088</v>
+        <v>2074968.549725404</v>
       </c>
       <c r="D32" t="n">
-        <v>1105899.129723239</v>
+        <v>2070135.199334065</v>
       </c>
       <c r="E32" t="n">
-        <v>1249391.057370679</v>
+        <v>1939790.886505236</v>
       </c>
       <c r="F32" t="n">
-        <v>1384221.940458786</v>
+        <v>2103415.600905646</v>
       </c>
       <c r="G32" t="n">
-        <v>1511671.538957705</v>
+        <v>1756637.732598223</v>
       </c>
       <c r="H32" t="n">
-        <v>1640224.096679376</v>
+        <v>1933015.182419358</v>
       </c>
       <c r="I32" t="n">
-        <v>1872044.486360301</v>
+        <v>2066043.844484741</v>
       </c>
       <c r="J32" t="n">
-        <v>2016751.082076684</v>
+        <v>2218959.960082187</v>
       </c>
       <c r="K32" t="n">
-        <v>2063223.869628624</v>
+        <v>2047951.978916497</v>
       </c>
       <c r="L32" t="n">
-        <v>2109495.623767083</v>
+        <v>2199123.217055096</v>
       </c>
       <c r="M32" t="n">
-        <v>2520991.587954533</v>
+        <v>2086826.26212481</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3541111.68199696</v>
+        <v>2239910.317500295</v>
       </c>
       <c r="C33" t="n">
-        <v>4548595.137990219</v>
+        <v>2095034.266065452</v>
       </c>
       <c r="D33" t="n">
-        <v>4124518.111718616</v>
+        <v>2040182.100144004</v>
       </c>
       <c r="E33" t="n">
-        <v>4014943.823587461</v>
+        <v>1851751.075772487</v>
       </c>
       <c r="F33" t="n">
-        <v>4749579.673456886</v>
+        <v>1930918.085844255</v>
       </c>
       <c r="G33" t="n">
-        <v>4361777.527247725</v>
+        <v>1859769.735133576</v>
       </c>
       <c r="H33" t="n">
-        <v>4491370.940427995</v>
+        <v>1879096.926198767</v>
       </c>
       <c r="I33" t="n">
-        <v>5011561.750899283</v>
+        <v>1870856.357865035</v>
       </c>
       <c r="J33" t="n">
-        <v>4939629.025993966</v>
+        <v>1759165.560345144</v>
       </c>
       <c r="K33" t="n">
-        <v>5656108.907279147</v>
+        <v>1801523.532899395</v>
       </c>
       <c r="L33" t="n">
-        <v>4779060.113139208</v>
+        <v>2177924.299434621</v>
       </c>
       <c r="M33" t="n">
-        <v>4618239.758455982</v>
+        <v>2340890.943853134</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10056348.20215802</v>
+        <v>3316938.528872839</v>
       </c>
       <c r="C34" t="n">
-        <v>9012897.092409393</v>
+        <v>2376551.646408731</v>
       </c>
       <c r="D34" t="n">
-        <v>12372482.50348793</v>
+        <v>3329605.3537307</v>
       </c>
       <c r="E34" t="n">
-        <v>11737668.14476168</v>
+        <v>2558049.144191881</v>
       </c>
       <c r="F34" t="n">
-        <v>13471230.41070088</v>
+        <v>3005525.232066725</v>
       </c>
       <c r="G34" t="n">
-        <v>13179951.11048309</v>
+        <v>2604491.53360667</v>
       </c>
       <c r="H34" t="n">
-        <v>11485376.85364618</v>
+        <v>2631410.323479645</v>
       </c>
       <c r="I34" t="n">
-        <v>11866183.73481423</v>
+        <v>2738563.344753677</v>
       </c>
       <c r="J34" t="n">
-        <v>12105565.00477056</v>
+        <v>2860295.011709028</v>
       </c>
       <c r="K34" t="n">
-        <v>13229654.40136284</v>
+        <v>2764958.079331368</v>
       </c>
       <c r="L34" t="n">
-        <v>12780150.47415367</v>
+        <v>2908770.079615402</v>
       </c>
       <c r="M34" t="n">
-        <v>12634798.27679417</v>
+        <v>2892811.81498345</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4842537.253293108</v>
+        <v>1522318.69856782</v>
       </c>
       <c r="C35" t="n">
-        <v>4827979.001162489</v>
+        <v>1684353.056332916</v>
       </c>
       <c r="D35" t="n">
-        <v>5490530.701837963</v>
+        <v>1854564.659807934</v>
       </c>
       <c r="E35" t="n">
-        <v>5611426.711782868</v>
+        <v>1613129.429420066</v>
       </c>
       <c r="F35" t="n">
-        <v>5960641.467513349</v>
+        <v>1563621.053470221</v>
       </c>
       <c r="G35" t="n">
-        <v>5397480.131152094</v>
+        <v>1366720.879968471</v>
       </c>
       <c r="H35" t="n">
-        <v>5093474.452612052</v>
+        <v>1696123.50106151</v>
       </c>
       <c r="I35" t="n">
-        <v>5980926.476982439</v>
+        <v>1758634.332476002</v>
       </c>
       <c r="J35" t="n">
-        <v>5097084.527830841</v>
+        <v>1526722.297032834</v>
       </c>
       <c r="K35" t="n">
-        <v>5016521.524805277</v>
+        <v>1433047.223661958</v>
       </c>
       <c r="L35" t="n">
-        <v>5158339.580100399</v>
+        <v>1458619.761035961</v>
       </c>
       <c r="M35" t="n">
-        <v>5770023.323290628</v>
+        <v>1670713.832902836</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2002795.580803798</v>
+        <v>1255188.713650244</v>
       </c>
       <c r="C36" t="n">
-        <v>2671698.28292065</v>
+        <v>1259354.298599662</v>
       </c>
       <c r="D36" t="n">
-        <v>3093143.683111379</v>
+        <v>1467559.912789343</v>
       </c>
       <c r="E36" t="n">
-        <v>2531007.362253617</v>
+        <v>1097317.223438612</v>
       </c>
       <c r="F36" t="n">
-        <v>2415316.343783326</v>
+        <v>1188615.250703426</v>
       </c>
       <c r="G36" t="n">
-        <v>2929418.435547998</v>
+        <v>1175772.456419636</v>
       </c>
       <c r="H36" t="n">
-        <v>2915152.63452085</v>
+        <v>1394192.596934316</v>
       </c>
       <c r="I36" t="n">
-        <v>3617321.789087505</v>
+        <v>1424259.047100921</v>
       </c>
       <c r="J36" t="n">
-        <v>3047096.478319849</v>
+        <v>1341107.662256326</v>
       </c>
       <c r="K36" t="n">
-        <v>2442366.365354085</v>
+        <v>1374013.570342654</v>
       </c>
       <c r="L36" t="n">
-        <v>3399767.224763719</v>
+        <v>1679851.206044534</v>
       </c>
       <c r="M36" t="n">
-        <v>3540994.400657569</v>
+        <v>1601221.312727119</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6182143.545683081</v>
+        <v>4687941.596623439</v>
       </c>
       <c r="C37" t="n">
-        <v>6870792.74424602</v>
+        <v>4087008.819545507</v>
       </c>
       <c r="D37" t="n">
-        <v>4619953.631871565</v>
+        <v>4830490.705035854</v>
       </c>
       <c r="E37" t="n">
-        <v>6458260.326039337</v>
+        <v>4290731.959401711</v>
       </c>
       <c r="F37" t="n">
-        <v>5013928.993719496</v>
+        <v>3700366.659655747</v>
       </c>
       <c r="G37" t="n">
-        <v>6204159.351019163</v>
+        <v>3302504.463048712</v>
       </c>
       <c r="H37" t="n">
-        <v>2886216.386674229</v>
+        <v>3405452.236533561</v>
       </c>
       <c r="I37" t="n">
-        <v>4416469.266394308</v>
+        <v>4706150.356663897</v>
       </c>
       <c r="J37" t="n">
-        <v>5901540.419561212</v>
+        <v>3727403.37368279</v>
       </c>
       <c r="K37" t="n">
-        <v>3839022.594570349</v>
+        <v>3314333.562365555</v>
       </c>
       <c r="L37" t="n">
-        <v>3301658.918980655</v>
+        <v>4299817.65821598</v>
       </c>
       <c r="M37" t="n">
-        <v>4777643.025611571</v>
+        <v>4601209.927227723</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2326510.202902009</v>
+        <v>3676658.082985586</v>
       </c>
       <c r="C38" t="n">
-        <v>1905350.79305088</v>
+        <v>4246552.144989296</v>
       </c>
       <c r="D38" t="n">
-        <v>2641013.764190913</v>
+        <v>4057921.763237206</v>
       </c>
       <c r="E38" t="n">
-        <v>3108551.214445229</v>
+        <v>3509105.004188498</v>
       </c>
       <c r="F38" t="n">
-        <v>3217841.242646905</v>
+        <v>4103357.029982135</v>
       </c>
       <c r="G38" t="n">
-        <v>2180738.238973753</v>
+        <v>3141037.072150331</v>
       </c>
       <c r="H38" t="n">
-        <v>1826726.682735519</v>
+        <v>3723149.12351697</v>
       </c>
       <c r="I38" t="n">
-        <v>3080162.285169035</v>
+        <v>3410910.45558207</v>
       </c>
       <c r="J38" t="n">
-        <v>3325779.845220501</v>
+        <v>3609968.085683601</v>
       </c>
       <c r="K38" t="n">
-        <v>2001954.804485707</v>
+        <v>4055138.878766009</v>
       </c>
       <c r="L38" t="n">
-        <v>2231190.209198241</v>
+        <v>3931483.82251445</v>
       </c>
       <c r="M38" t="n">
-        <v>3315923.820485002</v>
+        <v>4053045.629595984</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3607584.515896872</v>
+        <v>5060229.670431438</v>
       </c>
       <c r="C39" t="n">
-        <v>3764107.219421915</v>
+        <v>5168971.334510259</v>
       </c>
       <c r="D39" t="n">
-        <v>3786250.135238989</v>
+        <v>5825136.023935209</v>
       </c>
       <c r="E39" t="n">
-        <v>5037791.255412621</v>
+        <v>4682925.610275064</v>
       </c>
       <c r="F39" t="n">
-        <v>4630742.609643886</v>
+        <v>4717163.10275643</v>
       </c>
       <c r="G39" t="n">
-        <v>4882879.991457513</v>
+        <v>4333360.021504202</v>
       </c>
       <c r="H39" t="n">
-        <v>4025130.868753097</v>
+        <v>4756937.549726123</v>
       </c>
       <c r="I39" t="n">
-        <v>3814007.512993636</v>
+        <v>4894446.085700281</v>
       </c>
       <c r="J39" t="n">
-        <v>3769730.256738321</v>
+        <v>5238765.198520762</v>
       </c>
       <c r="K39" t="n">
-        <v>3965036.025334132</v>
+        <v>5437592.093433599</v>
       </c>
       <c r="L39" t="n">
-        <v>4255131.533933926</v>
+        <v>5540544.263960015</v>
       </c>
       <c r="M39" t="n">
-        <v>4471924.26740646</v>
+        <v>5679852.700540625</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10716616.12996026</v>
+        <v>5477391.162524991</v>
       </c>
       <c r="C40" t="n">
-        <v>10497635.45010825</v>
+        <v>5333220.84377364</v>
       </c>
       <c r="D40" t="n">
-        <v>12544348.78244946</v>
+        <v>5679225.072095455</v>
       </c>
       <c r="E40" t="n">
-        <v>14074678.69368351</v>
+        <v>5349560.693652389</v>
       </c>
       <c r="F40" t="n">
-        <v>13549848.74301597</v>
+        <v>5665519.934009456</v>
       </c>
       <c r="G40" t="n">
-        <v>13858782.39112391</v>
+        <v>4700779.010625848</v>
       </c>
       <c r="H40" t="n">
-        <v>10999396.08581121</v>
+        <v>5302943.240494242</v>
       </c>
       <c r="I40" t="n">
-        <v>13331355.04117869</v>
+        <v>5464774.557238318</v>
       </c>
       <c r="J40" t="n">
-        <v>11871587.17126811</v>
+        <v>5877790.533830491</v>
       </c>
       <c r="K40" t="n">
-        <v>13553116.55216559</v>
+        <v>5495697.648661453</v>
       </c>
       <c r="L40" t="n">
-        <v>11415371.52648685</v>
+        <v>5999342.547003945</v>
       </c>
       <c r="M40" t="n">
-        <v>12910351.53472049</v>
+        <v>5722125.13898347</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6688309.25899632</v>
+        <v>3046683.68796755</v>
       </c>
       <c r="C41" t="n">
-        <v>13911829.33677413</v>
+        <v>3274802.526730193</v>
       </c>
       <c r="D41" t="n">
-        <v>10523877.75641154</v>
+        <v>3402051.025446188</v>
       </c>
       <c r="E41" t="n">
-        <v>7331806.882056177</v>
+        <v>2857230.933016738</v>
       </c>
       <c r="F41" t="n">
-        <v>7084212.796088812</v>
+        <v>3530376.127056249</v>
       </c>
       <c r="G41" t="n">
-        <v>7029927.25371927</v>
+        <v>2847461.558399601</v>
       </c>
       <c r="H41" t="n">
-        <v>4811882.882788163</v>
+        <v>2859194.755267215</v>
       </c>
       <c r="I41" t="n">
-        <v>6059670.637689778</v>
+        <v>3151990.779009782</v>
       </c>
       <c r="J41" t="n">
-        <v>5817349.345778114</v>
+        <v>3225698.978939414</v>
       </c>
       <c r="K41" t="n">
-        <v>5516822.364111082</v>
+        <v>2975890.104110607</v>
       </c>
       <c r="L41" t="n">
-        <v>3856094.660525065</v>
+        <v>3236334.606627825</v>
       </c>
       <c r="M41" t="n">
-        <v>6485883.924627936</v>
+        <v>3558503.238314117</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>9951043.490996489</v>
+        <v>4344243.201299391</v>
       </c>
       <c r="C42" t="n">
-        <v>8855956.056870878</v>
+        <v>4852615.920716159</v>
       </c>
       <c r="D42" t="n">
-        <v>10479644.05319322</v>
+        <v>4668935.107478546</v>
       </c>
       <c r="E42" t="n">
-        <v>10078387.63256892</v>
+        <v>4488395.208887295</v>
       </c>
       <c r="F42" t="n">
-        <v>10811040.7295317</v>
+        <v>4362363.262402738</v>
       </c>
       <c r="G42" t="n">
-        <v>13499943.27821982</v>
+        <v>3309913.086779946</v>
       </c>
       <c r="H42" t="n">
-        <v>8947402.144933362</v>
+        <v>3904415.837879466</v>
       </c>
       <c r="I42" t="n">
-        <v>10929164.05555436</v>
+        <v>4224809.899172457</v>
       </c>
       <c r="J42" t="n">
-        <v>11272627.35672635</v>
+        <v>4143544.097090751</v>
       </c>
       <c r="K42" t="n">
-        <v>11622455.85711704</v>
+        <v>3984672.389241775</v>
       </c>
       <c r="L42" t="n">
-        <v>9842480.851333741</v>
+        <v>4246206.074081715</v>
       </c>
       <c r="M42" t="n">
-        <v>10772171.2244995</v>
+        <v>4582354.180519256</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5663395.784258722</v>
+        <v>3206075.47673995</v>
       </c>
       <c r="C43" t="n">
-        <v>5035295.652660826</v>
+        <v>3217033.250109541</v>
       </c>
       <c r="D43" t="n">
-        <v>6651275.72657664</v>
+        <v>3211543.175237877</v>
       </c>
       <c r="E43" t="n">
-        <v>6539732.417626061</v>
+        <v>3313482.089670786</v>
       </c>
       <c r="F43" t="n">
-        <v>6090096.114368545</v>
+        <v>3519358.956835899</v>
       </c>
       <c r="G43" t="n">
-        <v>7079949.797825206</v>
+        <v>2445937.841246082</v>
       </c>
       <c r="H43" t="n">
-        <v>4907736.350892915</v>
+        <v>2497523.618602719</v>
       </c>
       <c r="I43" t="n">
-        <v>5191838.734617008</v>
+        <v>3207795.743265404</v>
       </c>
       <c r="J43" t="n">
-        <v>6934509.732685052</v>
+        <v>2866473.382770527</v>
       </c>
       <c r="K43" t="n">
-        <v>5789310.996337416</v>
+        <v>2929365.880204306</v>
       </c>
       <c r="L43" t="n">
-        <v>4225808.30050431</v>
+        <v>3211471.998711477</v>
       </c>
       <c r="M43" t="n">
-        <v>4590104.60372838</v>
+        <v>3195973.532823081</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>13774634.55711485</v>
+        <v>5082412.879658717</v>
       </c>
       <c r="C44" t="n">
-        <v>15666411.43852222</v>
+        <v>6232187.13896311</v>
       </c>
       <c r="D44" t="n">
-        <v>15543493.1346364</v>
+        <v>5530118.449746409</v>
       </c>
       <c r="E44" t="n">
-        <v>15325940.77253264</v>
+        <v>5378061.223228535</v>
       </c>
       <c r="F44" t="n">
-        <v>14086106.14680193</v>
+        <v>6295919.125229481</v>
       </c>
       <c r="G44" t="n">
-        <v>16417638.92354318</v>
+        <v>4727144.776926989</v>
       </c>
       <c r="H44" t="n">
-        <v>14365310.14525337</v>
+        <v>5078430.469639679</v>
       </c>
       <c r="I44" t="n">
-        <v>16178382.35562788</v>
+        <v>5807712.547104209</v>
       </c>
       <c r="J44" t="n">
-        <v>15717070.15063551</v>
+        <v>4977400.204433695</v>
       </c>
       <c r="K44" t="n">
-        <v>13428060.14076337</v>
+        <v>4548042.570905872</v>
       </c>
       <c r="L44" t="n">
-        <v>13790974.9029368</v>
+        <v>5348949.469303531</v>
       </c>
       <c r="M44" t="n">
-        <v>13811250.39917094</v>
+        <v>6174316.626067396</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6491044.067557816</v>
+        <v>3209150.897579176</v>
       </c>
       <c r="C45" t="n">
-        <v>5684986.494334362</v>
+        <v>3749934.065942963</v>
       </c>
       <c r="D45" t="n">
-        <v>5277051.144479594</v>
+        <v>3086242.363812287</v>
       </c>
       <c r="E45" t="n">
-        <v>5420282.882765302</v>
+        <v>3158943.588099142</v>
       </c>
       <c r="F45" t="n">
-        <v>4919090.003749806</v>
+        <v>3300279.405114439</v>
       </c>
       <c r="G45" t="n">
-        <v>6212279.343719924</v>
+        <v>2714066.303621574</v>
       </c>
       <c r="H45" t="n">
-        <v>5139069.909627259</v>
+        <v>2976151.279372314</v>
       </c>
       <c r="I45" t="n">
-        <v>5482557.205496798</v>
+        <v>3239062.90380481</v>
       </c>
       <c r="J45" t="n">
-        <v>5415095.497828768</v>
+        <v>3189870.832323853</v>
       </c>
       <c r="K45" t="n">
-        <v>5103226.303031177</v>
+        <v>2899556.66036756</v>
       </c>
       <c r="L45" t="n">
-        <v>4516157.337805993</v>
+        <v>3037585.839741299</v>
       </c>
       <c r="M45" t="n">
-        <v>4901833.893909032</v>
+        <v>3401927.077098439</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>14260793.62587707</v>
+        <v>2162885.908843851</v>
       </c>
       <c r="C46" t="n">
-        <v>11431298.81823007</v>
+        <v>2382548.108647235</v>
       </c>
       <c r="D46" t="n">
-        <v>8785700.572051564</v>
+        <v>2444694.033714778</v>
       </c>
       <c r="E46" t="n">
-        <v>8206382.764287359</v>
+        <v>1768252.911211328</v>
       </c>
       <c r="F46" t="n">
-        <v>9939713.378839938</v>
+        <v>2094760.833341408</v>
       </c>
       <c r="G46" t="n">
-        <v>13884065.41767489</v>
+        <v>1820413.198771282</v>
       </c>
       <c r="H46" t="n">
-        <v>8573246.459743718</v>
+        <v>2097552.160146848</v>
       </c>
       <c r="I46" t="n">
-        <v>12532327.30499912</v>
+        <v>2460007.120183988</v>
       </c>
       <c r="J46" t="n">
-        <v>11568619.95967605</v>
+        <v>1953934.595335171</v>
       </c>
       <c r="K46" t="n">
-        <v>11953932.67437566</v>
+        <v>2186753.814251028</v>
       </c>
       <c r="L46" t="n">
-        <v>9556246.819371272</v>
+        <v>2079666.09508032</v>
       </c>
       <c r="M46" t="n">
-        <v>11795819.3137094</v>
+        <v>2134580.32413478</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2262928.999944637</v>
+        <v>1553516.551986878</v>
       </c>
       <c r="C47" t="n">
-        <v>2275973.281129075</v>
+        <v>1511732.290907244</v>
       </c>
       <c r="D47" t="n">
-        <v>2290146.485695312</v>
+        <v>1519267.90306876</v>
       </c>
       <c r="E47" t="n">
-        <v>2175859.957150403</v>
+        <v>1272843.91100355</v>
       </c>
       <c r="F47" t="n">
-        <v>2218951.039045955</v>
+        <v>1219614.219604218</v>
       </c>
       <c r="G47" t="n">
-        <v>2175301.645449298</v>
+        <v>1247996.190000337</v>
       </c>
       <c r="H47" t="n">
-        <v>2201609.923730978</v>
+        <v>1271987.490541305</v>
       </c>
       <c r="I47" t="n">
-        <v>2251350.352606254</v>
+        <v>1228275.486286916</v>
       </c>
       <c r="J47" t="n">
-        <v>2334855.651001252</v>
+        <v>1429641.6906836</v>
       </c>
       <c r="K47" t="n">
-        <v>2398436.884128169</v>
+        <v>1581155.082919258</v>
       </c>
       <c r="L47" t="n">
-        <v>2359449.93649512</v>
+        <v>1461704.154726513</v>
       </c>
       <c r="M47" t="n">
-        <v>2492928.749756625</v>
+        <v>1541014.003110378</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>651016.3523810336</v>
+        <v>5309311.201396172</v>
       </c>
       <c r="C48" t="n">
-        <v>606096.533475802</v>
+        <v>5874036.421747101</v>
       </c>
       <c r="D48" t="n">
-        <v>574647.4611573468</v>
+        <v>6012769.625496529</v>
       </c>
       <c r="E48" t="n">
-        <v>549007.7323168198</v>
+        <v>5796446.554316685</v>
       </c>
       <c r="F48" t="n">
-        <v>539807.1128526911</v>
+        <v>6180913.177804352</v>
       </c>
       <c r="G48" t="n">
-        <v>884314.8931574128</v>
+        <v>5922034.050698732</v>
       </c>
       <c r="H48" t="n">
-        <v>553813.1274296273</v>
+        <v>6336080.990490195</v>
       </c>
       <c r="I48" t="n">
-        <v>557631.8520795997</v>
+        <v>6245925.23875957</v>
       </c>
       <c r="J48" t="n">
-        <v>471884.9555071249</v>
+        <v>6292946.058039604</v>
       </c>
       <c r="K48" t="n">
-        <v>637591.6307342832</v>
+        <v>6662713.400802674</v>
       </c>
       <c r="L48" t="n">
-        <v>508404.9087880398</v>
+        <v>6615813.236841641</v>
       </c>
       <c r="M48" t="n">
-        <v>427012.4714515036</v>
+        <v>6580774.15376389</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>566972.2927447138</v>
+        <v>594749.8394056746</v>
       </c>
       <c r="C49" t="n">
-        <v>535813.2869370428</v>
+        <v>688898.4076942555</v>
       </c>
       <c r="D49" t="n">
-        <v>714603.2365892923</v>
+        <v>509506.5493004215</v>
       </c>
       <c r="E49" t="n">
-        <v>807342.5933901403</v>
+        <v>526389.246058044</v>
       </c>
       <c r="F49" t="n">
-        <v>892425.5369482351</v>
+        <v>563138.9050231777</v>
       </c>
       <c r="G49" t="n">
-        <v>847863.6604080054</v>
+        <v>448401.7917478743</v>
       </c>
       <c r="H49" t="n">
-        <v>490161.6634873359</v>
+        <v>618179.7240930791</v>
       </c>
       <c r="I49" t="n">
-        <v>728336.6104697109</v>
+        <v>782473.8320603344</v>
       </c>
       <c r="J49" t="n">
-        <v>755027.5630144065</v>
+        <v>808294.0227765851</v>
       </c>
       <c r="K49" t="n">
-        <v>779382.9450845353</v>
+        <v>657312.195344395</v>
       </c>
       <c r="L49" t="n">
-        <v>577807.683006968</v>
+        <v>605081.4172816081</v>
       </c>
       <c r="M49" t="n">
-        <v>565136.9492097241</v>
+        <v>674326.9802472496</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1588469.992964775</v>
+        <v>2937730.717969504</v>
       </c>
       <c r="C50" t="n">
-        <v>1587700.627125097</v>
+        <v>2909641.604027373</v>
       </c>
       <c r="D50" t="n">
-        <v>1849805.895066736</v>
+        <v>2890389.457032161</v>
       </c>
       <c r="E50" t="n">
-        <v>1837792.219570519</v>
+        <v>2997039.289305354</v>
       </c>
       <c r="F50" t="n">
-        <v>1700408.346414627</v>
+        <v>3146088.607010942</v>
       </c>
       <c r="G50" t="n">
-        <v>1857134.556266355</v>
+        <v>2885673.378618361</v>
       </c>
       <c r="H50" t="n">
-        <v>1629096.655515475</v>
+        <v>3038453.914214231</v>
       </c>
       <c r="I50" t="n">
-        <v>1673372.761071548</v>
+        <v>3163924.510558602</v>
       </c>
       <c r="J50" t="n">
-        <v>1799895.830973355</v>
+        <v>3264408.232597139</v>
       </c>
       <c r="K50" t="n">
-        <v>1946442.606435544</v>
+        <v>3519681.093169434</v>
       </c>
       <c r="L50" t="n">
-        <v>1769195.097262468</v>
+        <v>3642764.219400612</v>
       </c>
       <c r="M50" t="n">
-        <v>1914254.435167283</v>
+        <v>3640873.191373671</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2466824.819727273</v>
+        <v>2965945.544272513</v>
       </c>
       <c r="C51" t="n">
-        <v>2368981.25904772</v>
+        <v>3158135.769923321</v>
       </c>
       <c r="D51" t="n">
-        <v>2223990.160935064</v>
+        <v>3197048.585870347</v>
       </c>
       <c r="E51" t="n">
-        <v>2169031.424821863</v>
+        <v>3249361.647769145</v>
       </c>
       <c r="F51" t="n">
-        <v>1980502.7021971</v>
+        <v>3234272.159610377</v>
       </c>
       <c r="G51" t="n">
-        <v>2059563.041107888</v>
+        <v>3085273.698736924</v>
       </c>
       <c r="H51" t="n">
-        <v>1852664.156371608</v>
+        <v>3340777.725160618</v>
       </c>
       <c r="I51" t="n">
-        <v>2007485.006310002</v>
+        <v>3314064.127477875</v>
       </c>
       <c r="J51" t="n">
-        <v>1999213.788388495</v>
+        <v>3633911.120927837</v>
       </c>
       <c r="K51" t="n">
-        <v>1887453.012713353</v>
+        <v>3591083.860533177</v>
       </c>
       <c r="L51" t="n">
-        <v>1929679.20590889</v>
+        <v>3682388.859283518</v>
       </c>
       <c r="M51" t="n">
-        <v>2306005.394021747</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2988882.128017447</v>
-      </c>
-      <c r="C52" t="n">
-        <v>3628788.610072165</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2694847.988278458</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3654163.072848028</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2888762.033149077</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3342213.161871104</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2908062.902291789</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2979727.948733517</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3092522.658988295</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3219726.694375874</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3129764.348899967</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3278779.767702318</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1397785.333925686</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1286253.762979287</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1440350.207032901</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1604236.682361579</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1357758.220424407</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1304220.622533716</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1205414.559983137</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1431012.912205703</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1491515.829421742</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1257961.48589138</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1163027.58042463</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1187608.11437843</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1732031.587552951</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1434694.253041921</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1450693.939815419</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1670500.626890455</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1311623.028810113</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1414060.87729926</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1486499.953765005</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1641250.591690426</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1681801.471735134</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1608919.008086239</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1651890.928300007</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1967589.427862309</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>4611614.810749908</v>
-      </c>
-      <c r="C55" t="n">
-        <v>4804572.32679116</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4209868.787017777</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4959523.172096507</v>
-      </c>
-      <c r="F55" t="n">
-        <v>4425875.850124253</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3841556.991127696</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3260442.54996144</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3558526.567770828</v>
-      </c>
-      <c r="J55" t="n">
-        <v>4865056.257225097</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3892063.83095081</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3484669.159493997</v>
-      </c>
-      <c r="M55" t="n">
-        <v>4475747.009535822</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3807179.0420366</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3677563.232806665</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4247675.058710322</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4059258.41435408</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3510651.316832616</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4105109.604480179</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3432990.809460172</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3725325.154682582</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3413276.786680635</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3612521.80294904</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4057877.197150139</v>
-      </c>
-      <c r="M56" t="n">
-        <v>3934403.880682779</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>5561503.065303598</v>
-      </c>
-      <c r="C57" t="n">
-        <v>5322742.918736475</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5438441.089384918</v>
-      </c>
-      <c r="E57" t="n">
-        <v>6101500.731089372</v>
-      </c>
-      <c r="F57" t="n">
-        <v>4966109.24297799</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5007086.18943264</v>
-      </c>
-      <c r="H57" t="n">
-        <v>4687497.302410255</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5060086.355561627</v>
-      </c>
-      <c r="J57" t="n">
-        <v>5204056.439433529</v>
-      </c>
-      <c r="K57" t="n">
-        <v>5554751.788698419</v>
-      </c>
-      <c r="L57" t="n">
-        <v>5759859.315504119</v>
-      </c>
-      <c r="M57" t="n">
-        <v>5868997.523556022</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>5006137.003944575</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5495263.705177616</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5362422.008898611</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5718971.265720475</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5399112.091474868</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5724178.221266179</v>
-      </c>
-      <c r="H58" t="n">
-        <v>4925344.859062915</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5377882.648474549</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5546955.760416877</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5966659.183426473</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5590731.526267249</v>
-      </c>
-      <c r="M58" t="n">
-        <v>6100049.432111007</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3201173.229952376</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3102782.415558618</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3334670.412508303</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3465613.358230792</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2924413.903284118</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3601107.100322282</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2656653.276386667</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2936800.936359277</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3232936.56735299</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3309917.067423755</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3063314.656794516</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3326902.18980684</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>4073954.397648244</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4384109.237213798</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4898242.560572473</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4720206.323700691</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4545197.622685252</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4424586.949324382</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3584683.053690461</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3977165.996517532</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4302663.789172853</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4226398.418761319</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4072425.299070453</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4338759.339756292</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>3197171.975824138</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3228755.296708154</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3244117.82453305</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3242913.019139062</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3349018.698943811</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3558943.710162244</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2805627.752354142</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2544897.758816327</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3258862.599229751</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2921126.490259506</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2987498.861484442</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3272979.373085363</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>6450893.810583954</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5419482.941796638</v>
-      </c>
-      <c r="D62" t="n">
-        <v>6573977.56160979</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5876462.12508585</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5728828.665788483</v>
-      </c>
-      <c r="G62" t="n">
-        <v>6650970.298663845</v>
-      </c>
-      <c r="H62" t="n">
-        <v>4732600.300771017</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5441584.559764178</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6174759.418148039</v>
-      </c>
-      <c r="K62" t="n">
-        <v>5348194.727495537</v>
-      </c>
-      <c r="L62" t="n">
-        <v>4922459.829798516</v>
-      </c>
-      <c r="M62" t="n">
-        <v>5726883.976417658</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3416037.319443323</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3342010.310148556</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3885769.92061086</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3225003.806610172</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3300575.355403227</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3444731.477952479</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2905688.876024266</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3126099.174359396</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3391675.811234008</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3345097.915833839</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3057346.804014777</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3197889.26976486</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2142050.180717079</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2174883.163529629</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2395192.061086519</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2457969.700670393</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1782150.884780699</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2109271.1466007</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1776267.079315018</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2113252.824205467</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2476281.4561185</v>
-      </c>
-      <c r="K64" t="n">
-        <v>1970774.942835512</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2204147.240829965</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2097600.682228114</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1737249.999075136</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1635882.044874396</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1604410.950243274</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1620212.899174124</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1380402.636785405</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1332465.035240993</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1434524.274349862</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1392488.088514342</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1351456.398045427</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1554992.337807527</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1708240.025086988</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1590175.876876307</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>4676340.579964972</v>
-      </c>
-      <c r="C66" t="n">
-        <v>4793599.19725005</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5255271.932856658</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5293018.417591642</v>
-      </c>
-      <c r="F66" t="n">
-        <v>4977718.603684257</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5265187.894817911</v>
-      </c>
-      <c r="H66" t="n">
-        <v>4693431.960209653</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5232112.972341446</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5050677.041870163</v>
-      </c>
-      <c r="K66" t="n">
-        <v>5008231.285884522</v>
-      </c>
-      <c r="L66" t="n">
-        <v>5290322.35062362</v>
-      </c>
-      <c r="M66" t="n">
-        <v>5157513.508922301</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>676148.8976458154</v>
-      </c>
-      <c r="C67" t="n">
-        <v>641779.3554781806</v>
-      </c>
-      <c r="D67" t="n">
-        <v>734992.7046507195</v>
-      </c>
-      <c r="E67" t="n">
-        <v>554684.3482019779</v>
-      </c>
-      <c r="F67" t="n">
-        <v>570667.2893822137</v>
-      </c>
-      <c r="G67" t="n">
-        <v>606536.1708170194</v>
-      </c>
-      <c r="H67" t="n">
-        <v>552638.3711594008</v>
-      </c>
-      <c r="I67" t="n">
-        <v>659883.1903220265</v>
-      </c>
-      <c r="J67" t="n">
-        <v>823339.2808939884</v>
-      </c>
-      <c r="K67" t="n">
-        <v>848342.9475974258</v>
-      </c>
-      <c r="L67" t="n">
-        <v>696563.5705961025</v>
-      </c>
-      <c r="M67" t="n">
-        <v>643552.2512338815</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2904694.30666105</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3045495.00363405</v>
-      </c>
-      <c r="D68" t="n">
-        <v>3039683.706076162</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3042264.440502628</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3170311.132360447</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3340330.091306599</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3222642.081517424</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3273403.011846643</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3418609.764248663</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3538435.221502841</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3812663.335188969</v>
-      </c>
-      <c r="M68" t="n">
-        <v>3954323.776812855</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>3058810.03776976</v>
-      </c>
-      <c r="C69" t="n">
-        <v>3204703.504202128</v>
-      </c>
-      <c r="D69" t="n">
-        <v>3425353.333843613</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3492155.149472772</v>
-      </c>
-      <c r="F69" t="n">
-        <v>3571800.090673625</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3583495.024178295</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3603665.908939762</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3742025.910928225</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3740476.485760338</v>
-      </c>
-      <c r="K69" t="n">
-        <v>4085022.18439594</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4066402.965993748</v>
-      </c>
-      <c r="M69" t="n">
-        <v>4181434.220507028</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>7247506.763787667</v>
-      </c>
-      <c r="C70" t="n">
-        <v>6737689.531677919</v>
-      </c>
-      <c r="D70" t="n">
-        <v>7368779.424697231</v>
-      </c>
-      <c r="E70" t="n">
-        <v>7574490.884242628</v>
-      </c>
-      <c r="F70" t="n">
-        <v>7532862.083984707</v>
-      </c>
-      <c r="G70" t="n">
-        <v>7784810.040774802</v>
-      </c>
-      <c r="H70" t="n">
-        <v>7304124.962082248</v>
-      </c>
-      <c r="I70" t="n">
-        <v>7235679.308476054</v>
-      </c>
-      <c r="J70" t="n">
-        <v>7025806.263838238</v>
-      </c>
-      <c r="K70" t="n">
-        <v>7689703.03176735</v>
-      </c>
-      <c r="L70" t="n">
-        <v>7559737.599620206</v>
-      </c>
-      <c r="M70" t="n">
-        <v>7527626.051652879</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>19435330.30641754</v>
-      </c>
-      <c r="C71" t="n">
-        <v>20905988.34270622</v>
-      </c>
-      <c r="D71" t="n">
-        <v>22451055.81595346</v>
-      </c>
-      <c r="E71" t="n">
-        <v>22914398.42761791</v>
-      </c>
-      <c r="F71" t="n">
-        <v>25199724.08428785</v>
-      </c>
-      <c r="G71" t="n">
-        <v>37024178.79556328</v>
-      </c>
-      <c r="H71" t="n">
-        <v>19218782.58261597</v>
-      </c>
-      <c r="I71" t="n">
-        <v>27959589.93885787</v>
-      </c>
-      <c r="J71" t="n">
-        <v>28649150.71463224</v>
-      </c>
-      <c r="K71" t="n">
-        <v>28545284.51246912</v>
-      </c>
-      <c r="L71" t="n">
-        <v>28541429.71025794</v>
-      </c>
-      <c r="M71" t="n">
-        <v>30332795.55650175</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>3691514.546230099</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2646810.377118722</v>
-      </c>
-      <c r="D72" t="n">
-        <v>4040276.921809866</v>
-      </c>
-      <c r="E72" t="n">
-        <v>1735923.161262692</v>
-      </c>
-      <c r="F72" t="n">
-        <v>4405711.659087958</v>
-      </c>
-      <c r="G72" t="n">
-        <v>2333099.769156248</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2145748.143375286</v>
-      </c>
-      <c r="I72" t="n">
-        <v>4779756.641971892</v>
-      </c>
-      <c r="J72" t="n">
-        <v>5471031.147695664</v>
-      </c>
-      <c r="K72" t="n">
-        <v>3755345.929406086</v>
-      </c>
-      <c r="L72" t="n">
-        <v>4502519.998309799</v>
-      </c>
-      <c r="M72" t="n">
-        <v>2439960.58733933</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>10719205.12614034</v>
-      </c>
-      <c r="C73" t="n">
-        <v>11570888.0319325</v>
-      </c>
-      <c r="D73" t="n">
-        <v>12224653.83637273</v>
-      </c>
-      <c r="E73" t="n">
-        <v>13930443.8775218</v>
-      </c>
-      <c r="F73" t="n">
-        <v>13534284.45546533</v>
-      </c>
-      <c r="G73" t="n">
-        <v>15091705.63845036</v>
-      </c>
-      <c r="H73" t="n">
-        <v>16101744.11764331</v>
-      </c>
-      <c r="I73" t="n">
-        <v>18295562.95234746</v>
-      </c>
-      <c r="J73" t="n">
-        <v>20250490.95543513</v>
-      </c>
-      <c r="K73" t="n">
-        <v>20135486.32596137</v>
-      </c>
-      <c r="L73" t="n">
-        <v>20101625.62157941</v>
-      </c>
-      <c r="M73" t="n">
-        <v>20917675.15991713</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>19797882.67520716</v>
-      </c>
-      <c r="C74" t="n">
-        <v>16811534.05050386</v>
-      </c>
-      <c r="D74" t="n">
-        <v>19420610.60611567</v>
-      </c>
-      <c r="E74" t="n">
-        <v>19281706.65172055</v>
-      </c>
-      <c r="F74" t="n">
-        <v>20877547.76861139</v>
-      </c>
-      <c r="G74" t="n">
-        <v>26441490.61814626</v>
-      </c>
-      <c r="H74" t="n">
-        <v>15296600.03127599</v>
-      </c>
-      <c r="I74" t="n">
-        <v>20223653.09244228</v>
-      </c>
-      <c r="J74" t="n">
-        <v>23620080.42173955</v>
-      </c>
-      <c r="K74" t="n">
-        <v>21614738.44964545</v>
-      </c>
-      <c r="L74" t="n">
-        <v>19481687.66596194</v>
-      </c>
-      <c r="M74" t="n">
-        <v>20702279.23569778</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>21722530.7957762</v>
-      </c>
-      <c r="C75" t="n">
-        <v>22669298.94129669</v>
-      </c>
-      <c r="D75" t="n">
-        <v>21388819.75377937</v>
-      </c>
-      <c r="E75" t="n">
-        <v>21460111.62443146</v>
-      </c>
-      <c r="F75" t="n">
-        <v>21757950.04778461</v>
-      </c>
-      <c r="G75" t="n">
-        <v>30239236.13141114</v>
-      </c>
-      <c r="H75" t="n">
-        <v>21194704.63861371</v>
-      </c>
-      <c r="I75" t="n">
-        <v>24335374.29231783</v>
-      </c>
-      <c r="J75" t="n">
-        <v>24912001.76673429</v>
-      </c>
-      <c r="K75" t="n">
-        <v>26414362.85852251</v>
-      </c>
-      <c r="L75" t="n">
-        <v>25129195.40942912</v>
-      </c>
-      <c r="M75" t="n">
-        <v>27176171.36773311</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>14647652.28776383</v>
-      </c>
-      <c r="C76" t="n">
-        <v>15135994.57400894</v>
-      </c>
-      <c r="D76" t="n">
-        <v>15658788.84431174</v>
-      </c>
-      <c r="E76" t="n">
-        <v>16150991.72168428</v>
-      </c>
-      <c r="F76" t="n">
-        <v>16134345.78175843</v>
-      </c>
-      <c r="G76" t="n">
-        <v>16548040.73347895</v>
-      </c>
-      <c r="H76" t="n">
-        <v>17022954.05894269</v>
-      </c>
-      <c r="I76" t="n">
-        <v>17382044.56390198</v>
-      </c>
-      <c r="J76" t="n">
-        <v>17793406.54266493</v>
-      </c>
-      <c r="K76" t="n">
-        <v>17887441.31899491</v>
-      </c>
-      <c r="L76" t="n">
-        <v>17563566.42037088</v>
-      </c>
-      <c r="M76" t="n">
-        <v>17786423.30165218</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>18052210.6457876</v>
-      </c>
-      <c r="C77" t="n">
-        <v>19139646.46749581</v>
-      </c>
-      <c r="D77" t="n">
-        <v>20905657.71645129</v>
-      </c>
-      <c r="E77" t="n">
-        <v>22877109.17249491</v>
-      </c>
-      <c r="F77" t="n">
-        <v>23787509.7122608</v>
-      </c>
-      <c r="G77" t="n">
-        <v>23192729.20021552</v>
-      </c>
-      <c r="H77" t="n">
-        <v>24124458.73628212</v>
-      </c>
-      <c r="I77" t="n">
-        <v>24929362.93178132</v>
-      </c>
-      <c r="J77" t="n">
-        <v>25677772.8012407</v>
-      </c>
-      <c r="K77" t="n">
-        <v>26413164.50760611</v>
-      </c>
-      <c r="L77" t="n">
-        <v>27181965.63989532</v>
-      </c>
-      <c r="M77" t="n">
-        <v>27926197.78848572</v>
+        <v>3732339.846551067</v>
       </c>
     </row>
   </sheetData>
